--- a/DMS/Templates/Indirect_Order_Detail_Export.xlsx
+++ b/DMS/Templates/Indirect_Order_Detail_Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D4F909-2AB8-41E4-92C8-BD37B986CF72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1092B2D-C72C-4D45-8108-43358B806799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,8 +256,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
+    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -365,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -403,6 +404,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA8" sqref="BA8"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU17" sqref="AU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,75 +775,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
       <c r="AR1" s="10"/>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
       <c r="V2" s="9"/>
       <c r="W2" s="6"/>
       <c r="X2" s="9"/>
@@ -865,19 +869,19 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
@@ -927,15 +931,15 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
       <c r="V5" s="11"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -972,102 +976,102 @@
       <c r="BC5" s="2"/>
     </row>
     <row r="7" spans="1:56" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16" t="s">
+      <c r="J7" s="18"/>
+      <c r="K7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="16" t="s">
+      <c r="L7" s="18"/>
+      <c r="M7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="16" t="s">
+      <c r="N7" s="18"/>
+      <c r="O7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="16" t="s">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="16" t="s">
+      <c r="R7" s="18"/>
+      <c r="S7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="16" t="s">
+      <c r="T7" s="18"/>
+      <c r="U7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="W7" s="16" t="s">
+      <c r="V7" s="18"/>
+      <c r="W7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="16" t="s">
+      <c r="X7" s="18"/>
+      <c r="Y7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="16" t="s">
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="16" t="s">
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="16" t="s">
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="16" t="s">
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="16" t="s">
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="16" t="s">
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="16" t="s">
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="16" t="s">
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="16" t="s">
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="16" t="s">
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="16" t="s">
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AV7" s="17"/>
+      <c r="AV7" s="18"/>
       <c r="AW7" s="4" t="s">
         <v>32</v>
       </c>
@@ -1094,98 +1098,98 @@
       </c>
     </row>
     <row r="8" spans="1:56" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="18" t="s">
+      <c r="J8" s="20"/>
+      <c r="K8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="18" t="s">
+      <c r="L8" s="20"/>
+      <c r="M8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="18" t="s">
+      <c r="N8" s="20"/>
+      <c r="O8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="18" t="s">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="18" t="s">
+      <c r="R8" s="20"/>
+      <c r="S8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="18" t="s">
+      <c r="T8" s="20"/>
+      <c r="U8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V8" s="19"/>
-      <c r="W8" s="18" t="s">
+      <c r="V8" s="20"/>
+      <c r="W8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="18" t="s">
+      <c r="X8" s="20"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="18" t="s">
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="18" t="s">
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="18" t="s">
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="18" t="s">
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="18" t="s">
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="18" t="s">
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="14" t="s">
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="14" t="s">
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="14" t="s">
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AV8" s="15"/>
+      <c r="AV8" s="16"/>
       <c r="AW8" s="7" t="s">
         <v>58</v>
       </c>
@@ -1201,13 +1205,13 @@
       <c r="BA8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BB8" s="7" t="s">
+      <c r="BB8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BC8" s="7" t="s">
+      <c r="BC8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BD8" s="7" t="s">
+      <c r="BD8" s="14" t="s">
         <v>63</v>
       </c>
     </row>

--- a/DMS/Templates/Indirect_Order_Detail_Export.xlsx
+++ b/DMS/Templates/Indirect_Order_Detail_Export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1092B2D-C72C-4D45-8108-43358B806799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B935588-DB41-4839-BF7B-EE897C00E601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>{{Exports.OrganizationName}}</t>
-  </si>
-  <si>
-    <t>{{Exports.Contents.Code}}</t>
   </si>
   <si>
     <r>
@@ -126,12 +123,6 @@
     <t>Tên tuyến</t>
   </si>
   <si>
-    <t>Mã giám sát</t>
-  </si>
-  <si>
-    <t>Tên giám sát</t>
-  </si>
-  <si>
     <t>Mã NVBH</t>
   </si>
   <si>
@@ -231,25 +222,46 @@
     <t>{{Exports.Total}}</t>
   </si>
   <si>
-    <t>{{Exports.Contents.CategoryName}}</t>
-  </si>
-  <si>
-    <t>{{Exports.Contents.Name}}</t>
-  </si>
-  <si>
-    <t>{{Exports.Contents.ItemOrderType}}</t>
-  </si>
-  <si>
-    <t>{{Exports.Contents.SalePrice}}</t>
-  </si>
-  <si>
-    <t>{{Exports.Contents.Quantity}}</t>
-  </si>
-  <si>
-    <t>{{Exports.Contents.Amount}}</t>
-  </si>
-  <si>
-    <t>{{Exports.Contents.UnitOfMeasureName}}</t>
+    <t>Mã người phê duyệt</t>
+  </si>
+  <si>
+    <t>Tên người phê duyệt</t>
+  </si>
+  <si>
+    <t>{{Exports.CategoryName}}</t>
+  </si>
+  <si>
+    <t>{{Exports.ItemOrderType}}</t>
+  </si>
+  <si>
+    <t>{{Exports.UnitOfMeasureName}}</t>
+  </si>
+  <si>
+    <t>{{Exports.SalePrice}}</t>
+  </si>
+  <si>
+    <t>{{Exports.Quantity}}</t>
+  </si>
+  <si>
+    <t>{{Exports.Amount}}</t>
+  </si>
+  <si>
+    <t>{{Exports.ItemName}}</t>
+  </si>
+  <si>
+    <t>{{Exports.ItemCode}}</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>{{SubTotal}}</t>
+  </si>
+  <si>
+    <t>{{Discount}}</t>
+  </si>
+  <si>
+    <t>{{Total}}</t>
   </si>
 </sst>
 </file>
@@ -260,7 +272,7 @@
     <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +307,13 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -366,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -390,54 +409,41 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,205 +724,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU17" sqref="AU17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" style="1" customWidth="1"/>
-    <col min="21" max="22" width="8.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.25" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.25" style="1" customWidth="1"/>
-    <col min="31" max="32" width="8.75" style="1" customWidth="1"/>
-    <col min="33" max="33" width="7.75" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8" style="1" customWidth="1"/>
-    <col min="35" max="36" width="8.875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="7.625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="7.625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="8" style="1" customWidth="1"/>
-    <col min="43" max="43" width="9.25" style="1" customWidth="1"/>
-    <col min="44" max="44" width="9.125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="8" style="1" customWidth="1"/>
-    <col min="47" max="47" width="7.5" style="1" customWidth="1"/>
-    <col min="48" max="48" width="7.75" style="1" customWidth="1"/>
-    <col min="49" max="55" width="16.125" style="1" customWidth="1"/>
-    <col min="56" max="56" width="24.375" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.125" style="1"/>
+    <col min="16" max="16" width="15.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.25" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.25" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="16.25" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="9"/>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
-    <row r="4" spans="1:56" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
+    <row r="4" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -924,23 +855,23 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="H5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="11"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="3"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -950,325 +881,248 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
     </row>
-    <row r="7" spans="1:56" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:32" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17" t="s">
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="17" t="s">
+      <c r="H7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="17" t="s">
+      <c r="I7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17" t="s">
+      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="17" t="s">
+      <c r="K7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="17" t="s">
+      <c r="L7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="17" t="s">
+      <c r="M7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="17" t="s">
+      <c r="N7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="17" t="s">
+      <c r="O7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="17" t="s">
+      <c r="R7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="17" t="s">
+      <c r="S7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="17" t="s">
+      <c r="T7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="17" t="s">
+      <c r="U7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="17" t="s">
+      <c r="V7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="17" t="s">
+      <c r="W7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="17" t="s">
+      <c r="Y7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="17" t="s">
+      <c r="Z7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="17" t="s">
+      <c r="AA7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="4" t="s">
+      <c r="AB7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AX7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AY7" s="4" t="s">
+      <c r="AD7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AZ7" s="4" t="s">
+      <c r="AE7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BA7" s="4" t="s">
+      <c r="AF7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BB7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:32" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BC7" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BD7" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="F8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="20"/>
-      <c r="U8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" s="20"/>
-      <c r="W8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD8" s="14" t="s">
-        <v>63</v>
-      </c>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A1:AQ1"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AU8:AV8"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
